--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件调解件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件调解件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150194</v>
+        <v>203331</v>
       </c>
       <c r="C2" t="n">
-        <v>14723</v>
+        <v>21235</v>
       </c>
       <c r="D2" t="n">
-        <v>265388</v>
+        <v>363417</v>
       </c>
       <c r="E2" t="n">
-        <v>66121</v>
+        <v>192451</v>
       </c>
       <c r="F2" t="n">
-        <v>18256</v>
+        <v>13367</v>
       </c>
       <c r="G2" t="n">
-        <v>15435</v>
+        <v>140412</v>
       </c>
       <c r="H2" t="n">
-        <v>617769</v>
+        <v>1108861</v>
       </c>
       <c r="I2" t="n">
-        <v>12934</v>
+        <v>24458</v>
       </c>
       <c r="J2" t="n">
-        <v>13065</v>
+        <v>46614</v>
       </c>
       <c r="K2" t="n">
-        <v>14125</v>
+        <v>23086</v>
       </c>
       <c r="L2" t="n">
-        <v>27331</v>
+        <v>40340</v>
       </c>
       <c r="M2" t="n">
-        <v>20197</v>
+        <v>40150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146103</v>
+        <v>206013</v>
       </c>
       <c r="C3" t="n">
-        <v>15354</v>
+        <v>19806</v>
       </c>
       <c r="D3" t="n">
-        <v>239308</v>
+        <v>382084</v>
       </c>
       <c r="E3" t="n">
-        <v>65917</v>
+        <v>256328</v>
       </c>
       <c r="F3" t="n">
-        <v>20251</v>
+        <v>13221</v>
       </c>
       <c r="G3" t="n">
-        <v>18957</v>
+        <v>141289</v>
       </c>
       <c r="H3" t="n">
-        <v>602251</v>
+        <v>1199000</v>
       </c>
       <c r="I3" t="n">
-        <v>13648</v>
+        <v>24134</v>
       </c>
       <c r="J3" t="n">
-        <v>13444</v>
+        <v>46979</v>
       </c>
       <c r="K3" t="n">
-        <v>13878</v>
+        <v>23209</v>
       </c>
       <c r="L3" t="n">
-        <v>34851</v>
+        <v>45788</v>
       </c>
       <c r="M3" t="n">
-        <v>20540</v>
+        <v>40149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151226</v>
+        <v>227450</v>
       </c>
       <c r="C4" t="n">
-        <v>18423</v>
+        <v>25204</v>
       </c>
       <c r="D4" t="n">
-        <v>236468</v>
+        <v>470201</v>
       </c>
       <c r="E4" t="n">
-        <v>73856</v>
+        <v>320131</v>
       </c>
       <c r="F4" t="n">
-        <v>16262</v>
+        <v>9604</v>
       </c>
       <c r="G4" t="n">
-        <v>22891</v>
+        <v>165358</v>
       </c>
       <c r="H4" t="n">
-        <v>625442</v>
+        <v>1426117</v>
       </c>
       <c r="I4" t="n">
-        <v>15785</v>
+        <v>26458</v>
       </c>
       <c r="J4" t="n">
-        <v>14613</v>
+        <v>56731</v>
       </c>
       <c r="K4" t="n">
-        <v>16067</v>
+        <v>23664</v>
       </c>
       <c r="L4" t="n">
-        <v>37733</v>
+        <v>56833</v>
       </c>
       <c r="M4" t="n">
-        <v>22118</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157134</v>
+        <v>226115</v>
       </c>
       <c r="C5" t="n">
-        <v>18769</v>
+        <v>20023</v>
       </c>
       <c r="D5" t="n">
-        <v>229375</v>
+        <v>481853</v>
       </c>
       <c r="E5" t="n">
-        <v>79010</v>
+        <v>292236</v>
       </c>
       <c r="F5" t="n">
-        <v>18793</v>
+        <v>8122</v>
       </c>
       <c r="G5" t="n">
-        <v>27944</v>
+        <v>153959</v>
       </c>
       <c r="H5" t="n">
-        <v>646934</v>
+        <v>1385334</v>
       </c>
       <c r="I5" t="n">
-        <v>16854</v>
+        <v>26885</v>
       </c>
       <c r="J5" t="n">
-        <v>17694</v>
+        <v>65513</v>
       </c>
       <c r="K5" t="n">
-        <v>17197</v>
+        <v>24104</v>
       </c>
       <c r="L5" t="n">
-        <v>40743</v>
+        <v>41890</v>
       </c>
       <c r="M5" t="n">
-        <v>23421</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154476</v>
+        <v>221489</v>
       </c>
       <c r="C6" t="n">
-        <v>18119</v>
+        <v>15136</v>
       </c>
       <c r="D6" t="n">
-        <v>216834</v>
+        <v>473791</v>
       </c>
       <c r="E6" t="n">
-        <v>83093</v>
+        <v>269256</v>
       </c>
       <c r="F6" t="n">
-        <v>18027</v>
+        <v>5836</v>
       </c>
       <c r="G6" t="n">
-        <v>27025</v>
+        <v>141071</v>
       </c>
       <c r="H6" t="n">
-        <v>634672</v>
+        <v>1295072</v>
       </c>
       <c r="I6" t="n">
-        <v>16650</v>
+        <v>27950</v>
       </c>
       <c r="J6" t="n">
-        <v>23130</v>
+        <v>57531</v>
       </c>
       <c r="K6" t="n">
-        <v>16681</v>
+        <v>22907</v>
       </c>
       <c r="L6" t="n">
-        <v>36359</v>
+        <v>18761</v>
       </c>
       <c r="M6" t="n">
-        <v>24278</v>
+        <v>41344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172604</v>
+        <v>254853</v>
       </c>
       <c r="C7" t="n">
-        <v>18306</v>
+        <v>10231</v>
       </c>
       <c r="D7" t="n">
-        <v>246049</v>
+        <v>556802</v>
       </c>
       <c r="E7" t="n">
-        <v>100227</v>
+        <v>270684</v>
       </c>
       <c r="F7" t="n">
-        <v>14076</v>
+        <v>5967</v>
       </c>
       <c r="G7" t="n">
-        <v>37912</v>
+        <v>144270</v>
       </c>
       <c r="H7" t="n">
-        <v>716882</v>
+        <v>1420597</v>
       </c>
       <c r="I7" t="n">
-        <v>18447</v>
+        <v>33949</v>
       </c>
       <c r="J7" t="n">
-        <v>22837</v>
+        <v>62308</v>
       </c>
       <c r="K7" t="n">
-        <v>18575</v>
+        <v>25922</v>
       </c>
       <c r="L7" t="n">
-        <v>39784</v>
+        <v>8840</v>
       </c>
       <c r="M7" t="n">
-        <v>28065</v>
+        <v>46771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205703</v>
+        <v>288943</v>
       </c>
       <c r="C8" t="n">
-        <v>18130</v>
+        <v>12899</v>
       </c>
       <c r="D8" t="n">
-        <v>303039</v>
+        <v>604722</v>
       </c>
       <c r="E8" t="n">
-        <v>136509</v>
+        <v>290471</v>
       </c>
       <c r="F8" t="n">
-        <v>14797</v>
+        <v>5541</v>
       </c>
       <c r="G8" t="n">
-        <v>93368</v>
+        <v>136027</v>
       </c>
       <c r="H8" t="n">
-        <v>930436</v>
+        <v>1524761</v>
       </c>
       <c r="I8" t="n">
-        <v>22818</v>
+        <v>38425</v>
       </c>
       <c r="J8" t="n">
-        <v>35715</v>
+        <v>63423</v>
       </c>
       <c r="K8" t="n">
-        <v>24901</v>
+        <v>26222</v>
       </c>
       <c r="L8" t="n">
-        <v>41076</v>
+        <v>3644</v>
       </c>
       <c r="M8" t="n">
-        <v>34380</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>208923</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19899</v>
-      </c>
-      <c r="D9" t="n">
-        <v>332894</v>
-      </c>
-      <c r="E9" t="n">
-        <v>166456</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13014</v>
-      </c>
-      <c r="G9" t="n">
-        <v>105666</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1010991</v>
-      </c>
-      <c r="I9" t="n">
-        <v>25218</v>
-      </c>
-      <c r="J9" t="n">
-        <v>42757</v>
-      </c>
-      <c r="K9" t="n">
-        <v>25023</v>
-      </c>
-      <c r="L9" t="n">
-        <v>35223</v>
-      </c>
-      <c r="M9" t="n">
-        <v>35918</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>203331</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21235</v>
-      </c>
-      <c r="D10" t="n">
-        <v>363417</v>
-      </c>
-      <c r="E10" t="n">
-        <v>192451</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13367</v>
-      </c>
-      <c r="G10" t="n">
-        <v>140412</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1108861</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24458</v>
-      </c>
-      <c r="J10" t="n">
-        <v>46614</v>
-      </c>
-      <c r="K10" t="n">
-        <v>23086</v>
-      </c>
-      <c r="L10" t="n">
-        <v>40340</v>
-      </c>
-      <c r="M10" t="n">
-        <v>40150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>206013</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19806</v>
-      </c>
-      <c r="D11" t="n">
-        <v>382084</v>
-      </c>
-      <c r="E11" t="n">
-        <v>256328</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13221</v>
-      </c>
-      <c r="G11" t="n">
-        <v>141289</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="I11" t="n">
-        <v>24134</v>
-      </c>
-      <c r="J11" t="n">
-        <v>46979</v>
-      </c>
-      <c r="K11" t="n">
-        <v>23209</v>
-      </c>
-      <c r="L11" t="n">
-        <v>45788</v>
-      </c>
-      <c r="M11" t="n">
-        <v>40149</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>227450</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25204</v>
-      </c>
-      <c r="D12" t="n">
-        <v>470201</v>
-      </c>
-      <c r="E12" t="n">
-        <v>320131</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9604</v>
-      </c>
-      <c r="G12" t="n">
-        <v>165358</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1426117</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26458</v>
-      </c>
-      <c r="J12" t="n">
-        <v>56731</v>
-      </c>
-      <c r="K12" t="n">
-        <v>23664</v>
-      </c>
-      <c r="L12" t="n">
-        <v>56833</v>
-      </c>
-      <c r="M12" t="n">
-        <v>44483</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>226115</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20023</v>
-      </c>
-      <c r="D13" t="n">
-        <v>481853</v>
-      </c>
-      <c r="E13" t="n">
-        <v>292236</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8122</v>
-      </c>
-      <c r="G13" t="n">
-        <v>153959</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1385334</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26885</v>
-      </c>
-      <c r="J13" t="n">
-        <v>65513</v>
-      </c>
-      <c r="K13" t="n">
-        <v>24104</v>
-      </c>
-      <c r="L13" t="n">
-        <v>41890</v>
-      </c>
-      <c r="M13" t="n">
-        <v>44634</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>221489</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15136</v>
-      </c>
-      <c r="D14" t="n">
-        <v>473791</v>
-      </c>
-      <c r="E14" t="n">
-        <v>269256</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5836</v>
-      </c>
-      <c r="G14" t="n">
-        <v>141071</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1295072</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27950</v>
-      </c>
-      <c r="J14" t="n">
-        <v>57531</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22907</v>
-      </c>
-      <c r="L14" t="n">
-        <v>18761</v>
-      </c>
-      <c r="M14" t="n">
-        <v>41344</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>254853</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10231</v>
-      </c>
-      <c r="D15" t="n">
-        <v>556802</v>
-      </c>
-      <c r="E15" t="n">
-        <v>270684</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5967</v>
-      </c>
-      <c r="G15" t="n">
-        <v>144270</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1420597</v>
-      </c>
-      <c r="I15" t="n">
-        <v>33949</v>
-      </c>
-      <c r="J15" t="n">
-        <v>62308</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25922</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8840</v>
-      </c>
-      <c r="M15" t="n">
-        <v>46771</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>288943</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12899</v>
-      </c>
-      <c r="D16" t="n">
-        <v>604722</v>
-      </c>
-      <c r="E16" t="n">
-        <v>290471</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5541</v>
-      </c>
-      <c r="G16" t="n">
-        <v>136027</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1524761</v>
-      </c>
-      <c r="I16" t="n">
-        <v>38425</v>
-      </c>
-      <c r="J16" t="n">
-        <v>63423</v>
-      </c>
-      <c r="K16" t="n">
-        <v>26222</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3644</v>
-      </c>
-      <c r="M16" t="n">
         <v>54444</v>
       </c>
     </row>
